--- a/mbs-EP-v.1.0.4 - Baumgarte version/Excel Files/flyball_governor/flyball_governor_simplified.xlsx
+++ b/mbs-EP-v.1.0.4 - Baumgarte version/Excel Files/flyball_governor/flyball_governor_simplified.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago_Serralha\Desktop\Thesis-Project\mbs-EP-v.1.0.3 - changable version\Excel Files\flyball_governor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago_Serralha\Desktop\Thesis-Project\mbs-EP-v.1.0.4 - Baumgarte version\Excel Files\flyball_governor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5C5664-A837-401C-A364-BA8E9E19334F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B178A03-D32A-49B6-9467-64F0DBC08AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18795" yWindow="9795" windowWidth="16200" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SimParam" sheetId="4" r:id="rId1"/>
@@ -1336,6 +1336,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1375,21 +1411,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1447,46 +1468,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1498,21 +1507,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1522,6 +1528,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1531,58 +1576,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2041,44 +2041,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="116"/>
-      <c r="J2" s="113" t="s">
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="J2" s="76" t="s">
         <v>149</v>
       </c>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="113"/>
-      <c r="O2" s="113"/>
-      <c r="P2" s="113"/>
-      <c r="Q2" s="113"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="76"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="91"/>
+      <c r="C3" s="79"/>
       <c r="D3" s="47">
         <v>10</v>
       </c>
       <c r="E3" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="92" t="s">
+      <c r="J3" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="K3" s="93"/>
-      <c r="L3" s="117"/>
-      <c r="M3" s="92" t="s">
+      <c r="K3" s="84"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="83" t="s">
         <v>124</v>
       </c>
-      <c r="N3" s="93"/>
-      <c r="O3" s="85"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="97"/>
       <c r="P3" s="42" t="s">
         <v>154</v>
       </c>
@@ -2087,10 +2087,10 @@
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="91"/>
+      <c r="C4" s="79"/>
       <c r="D4" s="47">
         <v>1E-3</v>
       </c>
@@ -2103,14 +2103,14 @@
       <c r="K4" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="L4" s="118"/>
+      <c r="L4" s="86"/>
       <c r="M4" s="41" t="s">
         <v>125</v>
       </c>
       <c r="N4" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="O4" s="86"/>
+      <c r="O4" s="98"/>
       <c r="P4" s="42" t="s">
         <v>155</v>
       </c>
@@ -2119,10 +2119,10 @@
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="90" t="s">
+      <c r="B5" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="91"/>
+      <c r="C5" s="79"/>
       <c r="D5" s="47" t="s">
         <v>79</v>
       </c>
@@ -2135,14 +2135,14 @@
       <c r="K5" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="L5" s="118"/>
+      <c r="L5" s="86"/>
       <c r="M5" s="42" t="s">
         <v>5</v>
       </c>
       <c r="N5" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="86"/>
+      <c r="O5" s="98"/>
       <c r="P5" s="42" t="s">
         <v>156</v>
       </c>
@@ -2151,10 +2151,10 @@
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="90" t="s">
+      <c r="B6" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="91"/>
+      <c r="C6" s="79"/>
       <c r="D6" s="47"/>
       <c r="E6" s="47" t="s">
         <v>77</v>
@@ -2165,14 +2165,14 @@
       <c r="K6" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="L6" s="118"/>
+      <c r="L6" s="86"/>
       <c r="M6" s="42" t="s">
         <v>127</v>
       </c>
       <c r="N6" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="O6" s="86"/>
+      <c r="O6" s="98"/>
       <c r="P6" s="42" t="s">
         <v>160</v>
       </c>
@@ -2181,10 +2181,10 @@
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="78" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="91"/>
+      <c r="C7" s="79"/>
       <c r="D7" s="47"/>
       <c r="E7" s="48" t="s">
         <v>103</v>
@@ -2195,14 +2195,14 @@
       <c r="K7" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="118"/>
+      <c r="L7" s="86"/>
       <c r="M7" s="42" t="s">
         <v>10</v>
       </c>
       <c r="N7" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="86"/>
+      <c r="O7" s="98"/>
       <c r="P7" s="42" t="s">
         <v>159</v>
       </c>
@@ -2211,10 +2211,10 @@
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="90" t="s">
+      <c r="B8" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="91"/>
+      <c r="C8" s="79"/>
       <c r="D8" s="47" t="s">
         <v>123</v>
       </c>
@@ -2227,14 +2227,14 @@
       <c r="K8" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="L8" s="118"/>
+      <c r="L8" s="86"/>
       <c r="M8" s="42" t="s">
         <v>12</v>
       </c>
       <c r="N8" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="86"/>
+      <c r="O8" s="98"/>
       <c r="P8" s="42" t="s">
         <v>163</v>
       </c>
@@ -2243,10 +2243,10 @@
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="90" t="s">
+      <c r="B9" s="78" t="s">
         <v>116</v>
       </c>
-      <c r="C9" s="91"/>
+      <c r="C9" s="79"/>
       <c r="D9" s="47"/>
       <c r="E9" s="48" t="s">
         <v>117</v>
@@ -2257,14 +2257,14 @@
       <c r="K9" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="L9" s="118"/>
+      <c r="L9" s="86"/>
       <c r="M9" s="42" t="s">
         <v>13</v>
       </c>
       <c r="N9" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="86"/>
+      <c r="O9" s="98"/>
       <c r="P9" s="42" t="s">
         <v>164</v>
       </c>
@@ -2279,14 +2279,14 @@
       <c r="K10" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="L10" s="118"/>
+      <c r="L10" s="86"/>
       <c r="M10" s="42" t="s">
         <v>14</v>
       </c>
       <c r="N10" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="O10" s="86"/>
+      <c r="O10" s="98"/>
       <c r="P10" s="46" t="s">
         <v>165</v>
       </c>
@@ -2297,14 +2297,14 @@
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="J11" s="50"/>
       <c r="K11" s="51"/>
-      <c r="L11" s="118"/>
+      <c r="L11" s="86"/>
       <c r="M11" s="42" t="s">
         <v>129</v>
       </c>
       <c r="N11" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="O11" s="86"/>
+      <c r="O11" s="98"/>
       <c r="P11" s="46" t="s">
         <v>166</v>
       </c>
@@ -2313,25 +2313,25 @@
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="113" t="s">
+      <c r="B12" s="76" t="s">
         <v>133</v>
       </c>
-      <c r="C12" s="113"/>
-      <c r="D12" s="113"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="113"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="113"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
       <c r="J12" s="52"/>
       <c r="K12" s="53"/>
-      <c r="L12" s="118"/>
+      <c r="L12" s="86"/>
       <c r="M12" s="42" t="s">
         <v>130</v>
       </c>
       <c r="N12" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="O12" s="86"/>
+      <c r="O12" s="98"/>
       <c r="P12" s="42" t="s">
         <v>171</v>
       </c>
@@ -2340,27 +2340,27 @@
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="89" t="s">
+      <c r="B13" s="77" t="s">
         <v>134</v>
       </c>
-      <c r="C13" s="89"/>
+      <c r="C13" s="77"/>
       <c r="D13" s="62"/>
       <c r="E13" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="F13" s="94"/>
-      <c r="G13" s="94"/>
-      <c r="H13" s="94"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="101"/>
       <c r="J13" s="52"/>
       <c r="K13" s="53"/>
-      <c r="L13" s="118"/>
+      <c r="L13" s="86"/>
       <c r="M13" s="42" t="s">
         <v>19</v>
       </c>
       <c r="N13" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="O13" s="86"/>
+      <c r="O13" s="98"/>
       <c r="P13" s="46" t="s">
         <v>172</v>
       </c>
@@ -2369,29 +2369,29 @@
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="89" t="s">
+      <c r="B14" s="77" t="s">
         <v>137</v>
       </c>
-      <c r="C14" s="89"/>
+      <c r="C14" s="77"/>
       <c r="D14" s="62" t="s">
         <v>232</v>
       </c>
       <c r="E14" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="F14" s="94"/>
-      <c r="G14" s="94"/>
-      <c r="H14" s="94"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="101"/>
       <c r="J14" s="54"/>
       <c r="K14" s="55"/>
-      <c r="L14" s="118"/>
+      <c r="L14" s="86"/>
       <c r="M14" s="42" t="s">
         <v>131</v>
       </c>
       <c r="N14" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="O14" s="86"/>
+      <c r="O14" s="98"/>
       <c r="P14" s="46" t="s">
         <v>173</v>
       </c>
@@ -2400,31 +2400,31 @@
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="89" t="s">
+      <c r="B15" s="77" t="s">
         <v>138</v>
       </c>
-      <c r="C15" s="89"/>
+      <c r="C15" s="77"/>
       <c r="D15" s="62" t="s">
         <v>232</v>
       </c>
       <c r="E15" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="F15" s="94"/>
-      <c r="G15" s="94"/>
-      <c r="H15" s="94"/>
-      <c r="J15" s="92" t="s">
+      <c r="F15" s="101"/>
+      <c r="G15" s="101"/>
+      <c r="H15" s="101"/>
+      <c r="J15" s="83" t="s">
         <v>89</v>
       </c>
-      <c r="K15" s="93"/>
-      <c r="L15" s="118"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="86"/>
       <c r="M15" s="42" t="s">
         <v>15</v>
       </c>
       <c r="N15" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="O15" s="86"/>
+      <c r="O15" s="98"/>
       <c r="P15" s="46" t="s">
         <v>174</v>
       </c>
@@ -2433,31 +2433,31 @@
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="89" t="s">
+      <c r="B16" s="77" t="s">
         <v>140</v>
       </c>
-      <c r="C16" s="89"/>
+      <c r="C16" s="77"/>
       <c r="D16" s="62"/>
       <c r="E16" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="F16" s="94"/>
-      <c r="G16" s="94"/>
-      <c r="H16" s="94"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="101"/>
+      <c r="H16" s="101"/>
       <c r="J16" s="42" t="s">
         <v>90</v>
       </c>
       <c r="K16" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="L16" s="118"/>
+      <c r="L16" s="86"/>
       <c r="M16" s="42" t="s">
         <v>132</v>
       </c>
       <c r="N16" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="O16" s="86"/>
+      <c r="O16" s="98"/>
       <c r="P16" s="42" t="s">
         <v>179</v>
       </c>
@@ -2466,29 +2466,29 @@
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="89" t="s">
+      <c r="B17" s="77" t="s">
         <v>139</v>
       </c>
-      <c r="C17" s="89"/>
+      <c r="C17" s="77"/>
       <c r="D17" s="62"/>
       <c r="E17" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="F17" s="94"/>
-      <c r="G17" s="94"/>
-      <c r="H17" s="94"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="101"/>
       <c r="J17" s="42" t="s">
         <v>0</v>
       </c>
       <c r="K17" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="L17" s="118"/>
-      <c r="M17" s="92" t="s">
+      <c r="L17" s="86"/>
+      <c r="M17" s="83" t="s">
         <v>144</v>
       </c>
-      <c r="N17" s="93"/>
-      <c r="O17" s="86"/>
+      <c r="N17" s="84"/>
+      <c r="O17" s="98"/>
       <c r="P17" s="46" t="s">
         <v>180</v>
       </c>
@@ -2497,33 +2497,33 @@
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="87" t="s">
+      <c r="B18" s="99" t="s">
         <v>136</v>
       </c>
-      <c r="C18" s="88"/>
+      <c r="C18" s="100"/>
       <c r="D18" s="62" t="s">
         <v>232</v>
       </c>
       <c r="E18" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="94"/>
-      <c r="G18" s="94"/>
-      <c r="H18" s="94"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="101"/>
       <c r="J18" s="42" t="s">
         <v>91</v>
       </c>
       <c r="K18" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="L18" s="118"/>
+      <c r="L18" s="86"/>
       <c r="M18" s="49" t="s">
         <v>153</v>
       </c>
       <c r="N18" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="O18" s="86"/>
+      <c r="O18" s="98"/>
       <c r="P18" s="46" t="s">
         <v>181</v>
       </c>
@@ -2532,31 +2532,31 @@
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="87" t="s">
+      <c r="B19" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="88"/>
+      <c r="C19" s="100"/>
       <c r="D19" s="62"/>
       <c r="E19" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="94"/>
-      <c r="G19" s="94"/>
-      <c r="H19" s="94"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="101"/>
       <c r="J19" s="42" t="s">
         <v>92</v>
       </c>
       <c r="K19" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="L19" s="118"/>
+      <c r="L19" s="86"/>
       <c r="M19" s="43" t="s">
         <v>145</v>
       </c>
       <c r="N19" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="O19" s="86"/>
+      <c r="O19" s="98"/>
       <c r="P19" s="46" t="s">
         <v>182</v>
       </c>
@@ -2565,33 +2565,33 @@
       </c>
     </row>
     <row r="20" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="76" t="s">
+      <c r="B20" s="88" t="s">
         <v>240</v>
       </c>
-      <c r="C20" s="78"/>
+      <c r="C20" s="90"/>
       <c r="D20" s="45" t="s">
         <v>232</v>
       </c>
       <c r="E20" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="F20" s="94"/>
-      <c r="G20" s="94"/>
-      <c r="H20" s="94"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="101"/>
+      <c r="H20" s="101"/>
       <c r="J20" s="42" t="s">
         <v>98</v>
       </c>
       <c r="K20" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="L20" s="118"/>
+      <c r="L20" s="86"/>
       <c r="M20" s="43" t="s">
         <v>146</v>
       </c>
       <c r="N20" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="O20" s="86"/>
+      <c r="O20" s="98"/>
       <c r="P20" s="42" t="s">
         <v>187</v>
       </c>
@@ -2600,31 +2600,31 @@
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="89" t="s">
+      <c r="B21" s="77" t="s">
         <v>241</v>
       </c>
-      <c r="C21" s="89"/>
+      <c r="C21" s="77"/>
       <c r="D21" s="72"/>
       <c r="E21" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="94"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="101"/>
+      <c r="H21" s="101"/>
       <c r="J21" s="42" t="s">
         <v>93</v>
       </c>
       <c r="K21" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="L21" s="118"/>
+      <c r="L21" s="86"/>
       <c r="M21" s="43" t="s">
         <v>147</v>
       </c>
       <c r="N21" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="O21" s="86"/>
+      <c r="O21" s="98"/>
       <c r="P21" s="46" t="s">
         <v>188</v>
       </c>
@@ -2633,35 +2633,35 @@
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B22" s="95" t="s">
+      <c r="B22" s="102" t="s">
         <v>135</v>
       </c>
-      <c r="C22" s="96"/>
+      <c r="C22" s="103"/>
       <c r="D22" s="62">
         <v>2</v>
       </c>
-      <c r="E22" s="101" t="s">
+      <c r="E22" s="108" t="s">
         <v>141</v>
       </c>
-      <c r="F22" s="104" t="s">
+      <c r="F22" s="111" t="s">
         <v>142</v>
       </c>
-      <c r="G22" s="105"/>
-      <c r="H22" s="106"/>
+      <c r="G22" s="112"/>
+      <c r="H22" s="113"/>
       <c r="J22" s="30" t="s">
         <v>104</v>
       </c>
       <c r="K22" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="L22" s="119"/>
+      <c r="L22" s="87"/>
       <c r="M22" s="43" t="s">
         <v>148</v>
       </c>
       <c r="N22" s="42" t="s">
         <v>150</v>
       </c>
-      <c r="O22" s="86"/>
+      <c r="O22" s="98"/>
       <c r="P22" s="46" t="s">
         <v>189</v>
       </c>
@@ -2670,21 +2670,21 @@
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="97"/>
-      <c r="C23" s="98"/>
+      <c r="B23" s="104"/>
+      <c r="C23" s="105"/>
       <c r="D23" s="62">
         <v>3</v>
       </c>
-      <c r="E23" s="102"/>
-      <c r="F23" s="107"/>
-      <c r="G23" s="108"/>
-      <c r="H23" s="109"/>
-      <c r="J23" s="76"/>
-      <c r="K23" s="77"/>
-      <c r="L23" s="77"/>
-      <c r="M23" s="77"/>
-      <c r="N23" s="78"/>
-      <c r="O23" s="86"/>
+      <c r="E23" s="109"/>
+      <c r="F23" s="114"/>
+      <c r="G23" s="115"/>
+      <c r="H23" s="116"/>
+      <c r="J23" s="88"/>
+      <c r="K23" s="89"/>
+      <c r="L23" s="89"/>
+      <c r="M23" s="89"/>
+      <c r="N23" s="90"/>
+      <c r="O23" s="98"/>
       <c r="P23" s="46" t="s">
         <v>190</v>
       </c>
@@ -2693,19 +2693,19 @@
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="97"/>
-      <c r="C24" s="98"/>
+      <c r="B24" s="104"/>
+      <c r="C24" s="105"/>
       <c r="D24" s="62"/>
-      <c r="E24" s="102"/>
-      <c r="F24" s="107"/>
-      <c r="G24" s="108"/>
-      <c r="H24" s="109"/>
-      <c r="J24" s="79"/>
-      <c r="K24" s="80"/>
-      <c r="L24" s="80"/>
-      <c r="M24" s="80"/>
-      <c r="N24" s="81"/>
-      <c r="O24" s="86"/>
+      <c r="E24" s="109"/>
+      <c r="F24" s="114"/>
+      <c r="G24" s="115"/>
+      <c r="H24" s="116"/>
+      <c r="J24" s="91"/>
+      <c r="K24" s="92"/>
+      <c r="L24" s="92"/>
+      <c r="M24" s="92"/>
+      <c r="N24" s="93"/>
+      <c r="O24" s="98"/>
       <c r="P24" s="30" t="s">
         <v>196</v>
       </c>
@@ -2714,19 +2714,19 @@
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="97"/>
-      <c r="C25" s="98"/>
+      <c r="B25" s="104"/>
+      <c r="C25" s="105"/>
       <c r="D25" s="62"/>
-      <c r="E25" s="102"/>
-      <c r="F25" s="107"/>
-      <c r="G25" s="108"/>
-      <c r="H25" s="109"/>
-      <c r="J25" s="79"/>
-      <c r="K25" s="80"/>
-      <c r="L25" s="80"/>
-      <c r="M25" s="80"/>
-      <c r="N25" s="81"/>
-      <c r="O25" s="86"/>
+      <c r="E25" s="109"/>
+      <c r="F25" s="114"/>
+      <c r="G25" s="115"/>
+      <c r="H25" s="116"/>
+      <c r="J25" s="91"/>
+      <c r="K25" s="92"/>
+      <c r="L25" s="92"/>
+      <c r="M25" s="92"/>
+      <c r="N25" s="93"/>
+      <c r="O25" s="98"/>
       <c r="P25" s="30" t="s">
         <v>200</v>
       </c>
@@ -2735,19 +2735,19 @@
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="97"/>
-      <c r="C26" s="98"/>
+      <c r="B26" s="104"/>
+      <c r="C26" s="105"/>
       <c r="D26" s="62"/>
-      <c r="E26" s="102"/>
-      <c r="F26" s="107"/>
-      <c r="G26" s="108"/>
-      <c r="H26" s="109"/>
-      <c r="J26" s="79"/>
-      <c r="K26" s="80"/>
-      <c r="L26" s="80"/>
-      <c r="M26" s="80"/>
-      <c r="N26" s="81"/>
-      <c r="O26" s="86"/>
+      <c r="E26" s="109"/>
+      <c r="F26" s="114"/>
+      <c r="G26" s="115"/>
+      <c r="H26" s="116"/>
+      <c r="J26" s="91"/>
+      <c r="K26" s="92"/>
+      <c r="L26" s="92"/>
+      <c r="M26" s="92"/>
+      <c r="N26" s="93"/>
+      <c r="O26" s="98"/>
       <c r="P26" s="30" t="s">
         <v>201</v>
       </c>
@@ -2756,19 +2756,19 @@
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="97"/>
-      <c r="C27" s="98"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="105"/>
       <c r="D27" s="62"/>
-      <c r="E27" s="102"/>
-      <c r="F27" s="107"/>
-      <c r="G27" s="108"/>
-      <c r="H27" s="109"/>
-      <c r="J27" s="79"/>
-      <c r="K27" s="80"/>
-      <c r="L27" s="80"/>
-      <c r="M27" s="80"/>
-      <c r="N27" s="81"/>
-      <c r="O27" s="86"/>
+      <c r="E27" s="109"/>
+      <c r="F27" s="114"/>
+      <c r="G27" s="115"/>
+      <c r="H27" s="116"/>
+      <c r="J27" s="91"/>
+      <c r="K27" s="92"/>
+      <c r="L27" s="92"/>
+      <c r="M27" s="92"/>
+      <c r="N27" s="93"/>
+      <c r="O27" s="98"/>
       <c r="P27" s="30" t="s">
         <v>202</v>
       </c>
@@ -2777,19 +2777,19 @@
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="97"/>
-      <c r="C28" s="98"/>
+      <c r="B28" s="104"/>
+      <c r="C28" s="105"/>
       <c r="D28" s="62"/>
-      <c r="E28" s="102"/>
-      <c r="F28" s="107"/>
-      <c r="G28" s="108"/>
-      <c r="H28" s="109"/>
-      <c r="J28" s="79"/>
-      <c r="K28" s="80"/>
-      <c r="L28" s="80"/>
-      <c r="M28" s="80"/>
-      <c r="N28" s="81"/>
-      <c r="O28" s="86"/>
+      <c r="E28" s="109"/>
+      <c r="F28" s="114"/>
+      <c r="G28" s="115"/>
+      <c r="H28" s="116"/>
+      <c r="J28" s="91"/>
+      <c r="K28" s="92"/>
+      <c r="L28" s="92"/>
+      <c r="M28" s="92"/>
+      <c r="N28" s="93"/>
+      <c r="O28" s="98"/>
       <c r="P28" s="30" t="s">
         <v>204</v>
       </c>
@@ -2798,19 +2798,19 @@
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="99"/>
-      <c r="C29" s="100"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="62"/>
-      <c r="E29" s="103"/>
-      <c r="F29" s="110"/>
-      <c r="G29" s="111"/>
-      <c r="H29" s="112"/>
-      <c r="J29" s="79"/>
-      <c r="K29" s="80"/>
-      <c r="L29" s="80"/>
-      <c r="M29" s="80"/>
-      <c r="N29" s="81"/>
-      <c r="O29" s="86"/>
+      <c r="E29" s="110"/>
+      <c r="F29" s="117"/>
+      <c r="G29" s="118"/>
+      <c r="H29" s="119"/>
+      <c r="J29" s="91"/>
+      <c r="K29" s="92"/>
+      <c r="L29" s="92"/>
+      <c r="M29" s="92"/>
+      <c r="N29" s="93"/>
+      <c r="O29" s="98"/>
       <c r="P29" s="30" t="s">
         <v>203</v>
       </c>
@@ -2819,12 +2819,12 @@
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J30" s="79"/>
-      <c r="K30" s="80"/>
-      <c r="L30" s="80"/>
-      <c r="M30" s="80"/>
-      <c r="N30" s="81"/>
-      <c r="O30" s="86"/>
+      <c r="J30" s="91"/>
+      <c r="K30" s="92"/>
+      <c r="L30" s="92"/>
+      <c r="M30" s="92"/>
+      <c r="N30" s="93"/>
+      <c r="O30" s="98"/>
       <c r="P30" s="30" t="s">
         <v>205</v>
       </c>
@@ -2833,12 +2833,12 @@
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J31" s="79"/>
-      <c r="K31" s="80"/>
-      <c r="L31" s="80"/>
-      <c r="M31" s="80"/>
-      <c r="N31" s="81"/>
-      <c r="O31" s="86"/>
+      <c r="J31" s="91"/>
+      <c r="K31" s="92"/>
+      <c r="L31" s="92"/>
+      <c r="M31" s="92"/>
+      <c r="N31" s="93"/>
+      <c r="O31" s="98"/>
       <c r="P31" s="30" t="s">
         <v>206</v>
       </c>
@@ -2847,12 +2847,12 @@
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J32" s="79"/>
-      <c r="K32" s="80"/>
-      <c r="L32" s="80"/>
-      <c r="M32" s="80"/>
-      <c r="N32" s="81"/>
-      <c r="O32" s="86"/>
+      <c r="J32" s="91"/>
+      <c r="K32" s="92"/>
+      <c r="L32" s="92"/>
+      <c r="M32" s="92"/>
+      <c r="N32" s="93"/>
+      <c r="O32" s="98"/>
       <c r="P32" s="30" t="s">
         <v>207</v>
       </c>
@@ -2861,12 +2861,12 @@
       </c>
     </row>
     <row r="33" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J33" s="79"/>
-      <c r="K33" s="80"/>
-      <c r="L33" s="80"/>
-      <c r="M33" s="80"/>
-      <c r="N33" s="81"/>
-      <c r="O33" s="86"/>
+      <c r="J33" s="91"/>
+      <c r="K33" s="92"/>
+      <c r="L33" s="92"/>
+      <c r="M33" s="92"/>
+      <c r="N33" s="93"/>
+      <c r="O33" s="98"/>
       <c r="P33" s="30" t="s">
         <v>208</v>
       </c>
@@ -2875,12 +2875,12 @@
       </c>
     </row>
     <row r="34" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J34" s="79"/>
-      <c r="K34" s="80"/>
-      <c r="L34" s="80"/>
-      <c r="M34" s="80"/>
-      <c r="N34" s="81"/>
-      <c r="O34" s="86"/>
+      <c r="J34" s="91"/>
+      <c r="K34" s="92"/>
+      <c r="L34" s="92"/>
+      <c r="M34" s="92"/>
+      <c r="N34" s="93"/>
+      <c r="O34" s="98"/>
       <c r="P34" s="30" t="s">
         <v>209</v>
       </c>
@@ -2889,12 +2889,12 @@
       </c>
     </row>
     <row r="35" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J35" s="79"/>
-      <c r="K35" s="80"/>
-      <c r="L35" s="80"/>
-      <c r="M35" s="80"/>
-      <c r="N35" s="81"/>
-      <c r="O35" s="86"/>
+      <c r="J35" s="91"/>
+      <c r="K35" s="92"/>
+      <c r="L35" s="92"/>
+      <c r="M35" s="92"/>
+      <c r="N35" s="93"/>
+      <c r="O35" s="98"/>
       <c r="P35" s="30" t="s">
         <v>210</v>
       </c>
@@ -2903,12 +2903,12 @@
       </c>
     </row>
     <row r="36" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J36" s="79"/>
-      <c r="K36" s="80"/>
-      <c r="L36" s="80"/>
-      <c r="M36" s="80"/>
-      <c r="N36" s="81"/>
-      <c r="O36" s="86"/>
+      <c r="J36" s="91"/>
+      <c r="K36" s="92"/>
+      <c r="L36" s="92"/>
+      <c r="M36" s="92"/>
+      <c r="N36" s="93"/>
+      <c r="O36" s="98"/>
       <c r="P36" s="30" t="s">
         <v>219</v>
       </c>
@@ -2917,12 +2917,12 @@
       </c>
     </row>
     <row r="37" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J37" s="79"/>
-      <c r="K37" s="80"/>
-      <c r="L37" s="80"/>
-      <c r="M37" s="80"/>
-      <c r="N37" s="81"/>
-      <c r="O37" s="86"/>
+      <c r="J37" s="91"/>
+      <c r="K37" s="92"/>
+      <c r="L37" s="92"/>
+      <c r="M37" s="92"/>
+      <c r="N37" s="93"/>
+      <c r="O37" s="98"/>
       <c r="P37" s="30" t="s">
         <v>220</v>
       </c>
@@ -2931,12 +2931,12 @@
       </c>
     </row>
     <row r="38" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J38" s="82"/>
-      <c r="K38" s="83"/>
-      <c r="L38" s="83"/>
-      <c r="M38" s="83"/>
-      <c r="N38" s="84"/>
-      <c r="O38" s="86"/>
+      <c r="J38" s="94"/>
+      <c r="K38" s="95"/>
+      <c r="L38" s="95"/>
+      <c r="M38" s="95"/>
+      <c r="N38" s="96"/>
+      <c r="O38" s="98"/>
       <c r="P38" s="30" t="s">
         <v>221</v>
       </c>
@@ -2954,6 +2954,21 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="J23:N38"/>
+    <mergeCell ref="O3:O38"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="F13:H21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C29"/>
+    <mergeCell ref="E22:E29"/>
+    <mergeCell ref="F22:H29"/>
     <mergeCell ref="J2:Q2"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
@@ -2969,21 +2984,6 @@
     <mergeCell ref="L3:L22"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="M17:N17"/>
-    <mergeCell ref="J23:N38"/>
-    <mergeCell ref="O3:O38"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="F13:H21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C29"/>
-    <mergeCell ref="E22:E29"/>
-    <mergeCell ref="F22:H29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3015,118 +3015,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="94"/>
-      <c r="B1" s="94"/>
-      <c r="C1" s="89" t="s">
+      <c r="A1" s="101"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89" t="s">
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89" t="s">
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89" t="s">
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89" t="s">
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
-      <c r="W1" s="89"/>
-      <c r="X1" s="89"/>
-      <c r="Y1" s="89"/>
-      <c r="Z1" s="89"/>
-      <c r="AA1" s="89"/>
-      <c r="AB1" s="89"/>
-      <c r="AC1" s="89"/>
-      <c r="AD1" s="89"/>
-      <c r="AE1" s="89"/>
-      <c r="AF1" s="89"/>
-      <c r="AG1" s="89"/>
-      <c r="AH1" s="89"/>
-      <c r="AI1" s="89"/>
-      <c r="AJ1" s="89"/>
-      <c r="AK1" s="89"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="77"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="77"/>
+      <c r="AB1" s="77"/>
+      <c r="AC1" s="77"/>
+      <c r="AD1" s="77"/>
+      <c r="AE1" s="77"/>
+      <c r="AF1" s="77"/>
+      <c r="AG1" s="77"/>
+      <c r="AH1" s="77"/>
+      <c r="AI1" s="77"/>
+      <c r="AJ1" s="77"/>
+      <c r="AK1" s="77"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="94"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="122" t="s">
+      <c r="A2" s="101"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="121" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122" t="s">
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122" t="s">
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="89" t="s">
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="89" t="s">
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="123" t="s">
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="122" t="s">
         <v>81</v>
       </c>
-      <c r="S2" s="121" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="122" t="s">
+      <c r="S2" s="120" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="121" t="s">
         <v>88</v>
       </c>
-      <c r="U2" s="122"/>
-      <c r="V2" s="122"/>
-      <c r="W2" s="89" t="s">
+      <c r="U2" s="121"/>
+      <c r="V2" s="121"/>
+      <c r="W2" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="X2" s="89"/>
-      <c r="Y2" s="89"/>
-      <c r="Z2" s="87" t="s">
+      <c r="X2" s="77"/>
+      <c r="Y2" s="77"/>
+      <c r="Z2" s="99" t="s">
         <v>87</v>
       </c>
-      <c r="AA2" s="120"/>
-      <c r="AB2" s="88"/>
-      <c r="AC2" s="89" t="s">
+      <c r="AA2" s="123"/>
+      <c r="AB2" s="100"/>
+      <c r="AC2" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="AD2" s="89"/>
-      <c r="AE2" s="89"/>
-      <c r="AF2" s="89" t="s">
+      <c r="AD2" s="77"/>
+      <c r="AE2" s="77"/>
+      <c r="AF2" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="AG2" s="89"/>
-      <c r="AH2" s="89"/>
-      <c r="AI2" s="89" t="s">
+      <c r="AG2" s="77"/>
+      <c r="AH2" s="77"/>
+      <c r="AI2" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="AJ2" s="89"/>
-      <c r="AK2" s="89"/>
+      <c r="AJ2" s="77"/>
+      <c r="AK2" s="77"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -3180,8 +3180,8 @@
       <c r="Q3" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="R3" s="123"/>
-      <c r="S3" s="121"/>
+      <c r="R3" s="122"/>
+      <c r="S3" s="120"/>
       <c r="T3" s="16" t="s">
         <v>59</v>
       </c>
@@ -6754,6 +6754,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="S1:AK1"/>
+    <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="T2:V2"/>
@@ -6767,12 +6773,6 @@
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="S1:AK1"/>
-    <mergeCell ref="Z2:AB2"/>
   </mergeCells>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6804,16 +6804,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -6844,11 +6844,11 @@
       <c r="E2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="126" t="s">
+      <c r="F2" s="125" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -6904,19 +6904,19 @@
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="125" t="s">
+      <c r="A5" s="124" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="125"/>
-      <c r="K5" s="125"/>
+      <c r="B5" s="124"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="124"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="124"/>
+      <c r="G5" s="124"/>
+      <c r="H5" s="124"/>
+      <c r="I5" s="124"/>
+      <c r="J5" s="124"/>
+      <c r="K5" s="124"/>
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
@@ -6941,16 +6941,16 @@
       <c r="E6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="130" t="s">
+      <c r="F6" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="131"/>
-      <c r="H6" s="132"/>
-      <c r="I6" s="130" t="s">
+      <c r="G6" s="128"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="127" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="131"/>
-      <c r="K6" s="132"/>
+      <c r="J6" s="128"/>
+      <c r="K6" s="129"/>
       <c r="L6" s="20"/>
       <c r="M6" s="20"/>
       <c r="N6" s="20"/>
@@ -6986,22 +6986,22 @@
       <c r="X7" s="10"/>
     </row>
     <row r="8" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="125" t="s">
+      <c r="A8" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="125"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="125"/>
-      <c r="E8" s="125"/>
-      <c r="F8" s="125"/>
-      <c r="G8" s="125"/>
-      <c r="H8" s="125"/>
-      <c r="I8" s="125"/>
-      <c r="J8" s="125"/>
-      <c r="K8" s="125"/>
-      <c r="L8" s="125"/>
-      <c r="M8" s="125"/>
-      <c r="N8" s="125"/>
+      <c r="B8" s="124"/>
+      <c r="C8" s="124"/>
+      <c r="D8" s="124"/>
+      <c r="E8" s="124"/>
+      <c r="F8" s="124"/>
+      <c r="G8" s="124"/>
+      <c r="H8" s="124"/>
+      <c r="I8" s="124"/>
+      <c r="J8" s="124"/>
+      <c r="K8" s="124"/>
+      <c r="L8" s="124"/>
+      <c r="M8" s="124"/>
+      <c r="N8" s="124"/>
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
@@ -7026,21 +7026,21 @@
       <c r="E9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="126" t="s">
+      <c r="F9" s="125" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="126"/>
-      <c r="H9" s="126"/>
-      <c r="I9" s="124" t="s">
+      <c r="G9" s="125"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="124"/>
-      <c r="K9" s="124"/>
-      <c r="L9" s="124" t="s">
+      <c r="J9" s="126"/>
+      <c r="K9" s="126"/>
+      <c r="L9" s="126" t="s">
         <v>246</v>
       </c>
-      <c r="M9" s="124"/>
-      <c r="N9" s="124"/>
+      <c r="M9" s="126"/>
+      <c r="N9" s="126"/>
       <c r="R9" s="10"/>
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
@@ -7094,19 +7094,19 @@
       <c r="X11" s="10"/>
     </row>
     <row r="12" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="125" t="s">
+      <c r="A12" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="125"/>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
-      <c r="F12" s="125"/>
-      <c r="G12" s="125"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="125"/>
-      <c r="J12" s="125"/>
-      <c r="K12" s="125"/>
+      <c r="B12" s="124"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
+      <c r="F12" s="124"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="124"/>
+      <c r="J12" s="124"/>
+      <c r="K12" s="124"/>
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
@@ -7131,16 +7131,16 @@
       <c r="E13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="126" t="s">
+      <c r="F13" s="125" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="126"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="124" t="s">
+      <c r="G13" s="125"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="126" t="s">
         <v>44</v>
       </c>
-      <c r="J13" s="124"/>
-      <c r="K13" s="124"/>
+      <c r="J13" s="126"/>
+      <c r="K13" s="126"/>
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
@@ -7282,19 +7282,19 @@
       <c r="X17" s="10"/>
     </row>
     <row r="18" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="125" t="s">
+      <c r="A18" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="125"/>
-      <c r="C18" s="125"/>
-      <c r="D18" s="125"/>
-      <c r="E18" s="125"/>
-      <c r="F18" s="125"/>
-      <c r="G18" s="125"/>
-      <c r="H18" s="125"/>
-      <c r="I18" s="125"/>
-      <c r="J18" s="125"/>
-      <c r="K18" s="125"/>
+      <c r="B18" s="124"/>
+      <c r="C18" s="124"/>
+      <c r="D18" s="124"/>
+      <c r="E18" s="124"/>
+      <c r="F18" s="124"/>
+      <c r="G18" s="124"/>
+      <c r="H18" s="124"/>
+      <c r="I18" s="124"/>
+      <c r="J18" s="124"/>
+      <c r="K18" s="124"/>
       <c r="R18" s="10"/>
       <c r="S18" s="10"/>
       <c r="T18" s="10"/>
@@ -7319,16 +7319,16 @@
       <c r="E19" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="126" t="s">
+      <c r="F19" s="125" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="126"/>
-      <c r="H19" s="126"/>
-      <c r="I19" s="124" t="s">
+      <c r="G19" s="125"/>
+      <c r="H19" s="125"/>
+      <c r="I19" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="J19" s="124"/>
-      <c r="K19" s="124"/>
+      <c r="J19" s="126"/>
+      <c r="K19" s="126"/>
     </row>
     <row r="20" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
@@ -7352,19 +7352,19 @@
       <c r="X20" s="10"/>
     </row>
     <row r="21" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="125" t="s">
+      <c r="A21" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="125"/>
-      <c r="C21" s="125"/>
-      <c r="D21" s="125"/>
-      <c r="E21" s="125"/>
-      <c r="F21" s="125"/>
-      <c r="G21" s="125"/>
-      <c r="H21" s="125"/>
-      <c r="I21" s="125"/>
-      <c r="J21" s="125"/>
-      <c r="K21" s="125"/>
+      <c r="B21" s="124"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="124"/>
+      <c r="F21" s="124"/>
+      <c r="G21" s="124"/>
+      <c r="H21" s="124"/>
+      <c r="I21" s="124"/>
+      <c r="J21" s="124"/>
+      <c r="K21" s="124"/>
       <c r="R21" s="10"/>
       <c r="S21" s="10"/>
       <c r="T21" s="10"/>
@@ -7389,35 +7389,35 @@
       <c r="E22" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="126" t="s">
+      <c r="F22" s="125" t="s">
         <v>42</v>
       </c>
-      <c r="G22" s="126"/>
-      <c r="H22" s="126"/>
-      <c r="I22" s="124" t="s">
+      <c r="G22" s="125"/>
+      <c r="H22" s="125"/>
+      <c r="I22" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="J22" s="124"/>
-      <c r="K22" s="124"/>
+      <c r="J22" s="126"/>
+      <c r="K22" s="126"/>
     </row>
     <row r="23" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:24" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="125" t="s">
+      <c r="A24" s="124" t="s">
         <v>118</v>
       </c>
-      <c r="B24" s="125"/>
-      <c r="C24" s="125"/>
-      <c r="D24" s="125"/>
-      <c r="E24" s="125"/>
-      <c r="F24" s="125"/>
-      <c r="G24" s="125"/>
-      <c r="H24" s="125"/>
-      <c r="I24" s="125"/>
-      <c r="J24" s="125"/>
-      <c r="K24" s="125"/>
-      <c r="L24" s="125"/>
-      <c r="M24" s="125"/>
-      <c r="N24" s="125"/>
+      <c r="B24" s="124"/>
+      <c r="C24" s="124"/>
+      <c r="D24" s="124"/>
+      <c r="E24" s="124"/>
+      <c r="F24" s="124"/>
+      <c r="G24" s="124"/>
+      <c r="H24" s="124"/>
+      <c r="I24" s="124"/>
+      <c r="J24" s="124"/>
+      <c r="K24" s="124"/>
+      <c r="L24" s="124"/>
+      <c r="M24" s="124"/>
+      <c r="N24" s="124"/>
     </row>
     <row r="25" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="35" t="s">
@@ -7435,44 +7435,44 @@
       <c r="E25" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="126" t="s">
+      <c r="F25" s="125" t="s">
         <v>46</v>
       </c>
-      <c r="G25" s="126"/>
-      <c r="H25" s="126"/>
-      <c r="I25" s="124" t="s">
+      <c r="G25" s="125"/>
+      <c r="H25" s="125"/>
+      <c r="I25" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="J25" s="124"/>
-      <c r="K25" s="124"/>
-      <c r="L25" s="124" t="s">
+      <c r="J25" s="126"/>
+      <c r="K25" s="126"/>
+      <c r="L25" s="126" t="s">
         <v>119</v>
       </c>
-      <c r="M25" s="124"/>
-      <c r="N25" s="124"/>
+      <c r="M25" s="126"/>
+      <c r="N25" s="126"/>
     </row>
     <row r="26" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:24" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="125" t="s">
+      <c r="A28" s="124" t="s">
         <v>120</v>
       </c>
-      <c r="B28" s="125"/>
-      <c r="C28" s="125"/>
-      <c r="D28" s="125"/>
-      <c r="E28" s="125"/>
-      <c r="F28" s="125"/>
-      <c r="G28" s="125"/>
-      <c r="H28" s="125"/>
-      <c r="I28" s="125"/>
-      <c r="J28" s="125"/>
-      <c r="K28" s="125"/>
-      <c r="L28" s="125"/>
-      <c r="M28" s="125"/>
-      <c r="N28" s="125"/>
-      <c r="O28" s="125"/>
-      <c r="P28" s="125"/>
-      <c r="Q28" s="125"/>
+      <c r="B28" s="124"/>
+      <c r="C28" s="124"/>
+      <c r="D28" s="124"/>
+      <c r="E28" s="124"/>
+      <c r="F28" s="124"/>
+      <c r="G28" s="124"/>
+      <c r="H28" s="124"/>
+      <c r="I28" s="124"/>
+      <c r="J28" s="124"/>
+      <c r="K28" s="124"/>
+      <c r="L28" s="124"/>
+      <c r="M28" s="124"/>
+      <c r="N28" s="124"/>
+      <c r="O28" s="124"/>
+      <c r="P28" s="124"/>
+      <c r="Q28" s="124"/>
     </row>
     <row r="29" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="35" t="s">
@@ -7490,26 +7490,26 @@
       <c r="E29" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="130" t="s">
+      <c r="F29" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="G29" s="131"/>
-      <c r="H29" s="132"/>
-      <c r="I29" s="130" t="s">
+      <c r="G29" s="128"/>
+      <c r="H29" s="129"/>
+      <c r="I29" s="127" t="s">
         <v>47</v>
       </c>
-      <c r="J29" s="131"/>
-      <c r="K29" s="132"/>
-      <c r="L29" s="124" t="s">
+      <c r="J29" s="128"/>
+      <c r="K29" s="129"/>
+      <c r="L29" s="126" t="s">
         <v>121</v>
       </c>
-      <c r="M29" s="124"/>
-      <c r="N29" s="124"/>
-      <c r="O29" s="124" t="s">
+      <c r="M29" s="126"/>
+      <c r="N29" s="126"/>
+      <c r="O29" s="126" t="s">
         <v>122</v>
       </c>
-      <c r="P29" s="124"/>
-      <c r="Q29" s="124"/>
+      <c r="P29" s="126"/>
+      <c r="Q29" s="126"/>
     </row>
     <row r="30" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="20"/>
@@ -7544,14 +7544,14 @@
       <c r="R31"/>
     </row>
     <row r="32" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="125" t="s">
+      <c r="A32" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="125"/>
-      <c r="C32" s="125"/>
-      <c r="D32" s="125"/>
-      <c r="E32" s="125"/>
-      <c r="F32" s="125"/>
+      <c r="B32" s="124"/>
+      <c r="C32" s="124"/>
+      <c r="D32" s="124"/>
+      <c r="E32" s="124"/>
+      <c r="F32" s="124"/>
       <c r="G32" s="11"/>
       <c r="S32" s="10"/>
       <c r="T32" s="10"/>
@@ -7628,12 +7628,12 @@
       <c r="X35" s="10"/>
     </row>
     <row r="36" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="125" t="s">
+      <c r="A36" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="125"/>
-      <c r="C36" s="125"/>
-      <c r="D36" s="125"/>
+      <c r="B36" s="124"/>
+      <c r="C36" s="124"/>
+      <c r="D36" s="124"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
@@ -7699,15 +7699,15 @@
       <c r="G39" s="11"/>
     </row>
     <row r="40" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="127" t="s">
+      <c r="A40" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="128"/>
-      <c r="C40" s="128"/>
-      <c r="D40" s="128"/>
-      <c r="E40" s="128"/>
-      <c r="F40" s="128"/>
-      <c r="G40" s="129"/>
+      <c r="B40" s="131"/>
+      <c r="C40" s="131"/>
+      <c r="D40" s="131"/>
+      <c r="E40" s="131"/>
+      <c r="F40" s="131"/>
+      <c r="G40" s="132"/>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="63" t="s">
@@ -7722,11 +7722,11 @@
       <c r="D41" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="E41" s="124" t="s">
+      <c r="E41" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="F41" s="124"/>
-      <c r="G41" s="124"/>
+      <c r="F41" s="126"/>
+      <c r="G41" s="126"/>
     </row>
     <row r="42" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="44"/>
@@ -7868,21 +7868,6 @@
     <row r="62" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A8:N8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="A12:K12"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
     <mergeCell ref="E41:G41"/>
     <mergeCell ref="A21:K21"/>
     <mergeCell ref="F22:H22"/>
@@ -7899,6 +7884,21 @@
     <mergeCell ref="I29:K29"/>
     <mergeCell ref="L29:N29"/>
     <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="A12:K12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A8:N8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:K6"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20" xr:uid="{00000000-0002-0000-0100-000001000000}">
@@ -7968,11 +7968,11 @@
       <c r="E2" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="124" t="s">
+      <c r="F2" s="126" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
       <c r="I2" s="66" t="s">
         <v>251</v>
       </c>
@@ -8052,35 +8052,35 @@
       <c r="S1" s="134"/>
     </row>
     <row r="2" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="125"/>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="125"/>
-      <c r="M2" s="125"/>
-      <c r="N2" s="135" t="s">
+      <c r="A2" s="124"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="137" t="s">
         <v>244</v>
       </c>
-      <c r="O2" s="136"/>
-      <c r="P2" s="136"/>
-      <c r="Q2" s="136"/>
-      <c r="R2" s="136"/>
-      <c r="S2" s="137"/>
-      <c r="AB2" s="149" t="s">
+      <c r="O2" s="138"/>
+      <c r="P2" s="138"/>
+      <c r="Q2" s="138"/>
+      <c r="R2" s="138"/>
+      <c r="S2" s="139"/>
+      <c r="AB2" s="140" t="s">
         <v>115</v>
       </c>
-      <c r="AC2" s="150"/>
-      <c r="AD2" s="150"/>
-      <c r="AE2" s="150"/>
-      <c r="AF2" s="150"/>
-      <c r="AG2" s="151"/>
+      <c r="AC2" s="141"/>
+      <c r="AD2" s="141"/>
+      <c r="AE2" s="141"/>
+      <c r="AF2" s="141"/>
+      <c r="AG2" s="142"/>
     </row>
     <row r="3" spans="1:33" s="33" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="68" t="s">
@@ -8098,16 +8098,16 @@
       <c r="E3" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="144" t="s">
+      <c r="F3" s="135" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="145"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="138" t="s">
+      <c r="G3" s="156"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="153" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="139"/>
-      <c r="K3" s="140"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="155"/>
       <c r="L3" s="61" t="s">
         <v>239</v>
       </c>
@@ -8126,24 +8126,24 @@
       <c r="Q3" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="R3" s="147" t="s">
+      <c r="R3" s="157" t="s">
         <v>114</v>
       </c>
-      <c r="S3" s="147"/>
-      <c r="AB3" s="152"/>
-      <c r="AC3" s="153"/>
-      <c r="AD3" s="153"/>
-      <c r="AE3" s="153"/>
-      <c r="AF3" s="153"/>
-      <c r="AG3" s="154"/>
+      <c r="S3" s="157"/>
+      <c r="AB3" s="143"/>
+      <c r="AC3" s="144"/>
+      <c r="AD3" s="144"/>
+      <c r="AE3" s="144"/>
+      <c r="AF3" s="144"/>
+      <c r="AG3" s="145"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="AB4" s="152"/>
-      <c r="AC4" s="153"/>
-      <c r="AD4" s="153"/>
-      <c r="AE4" s="153"/>
-      <c r="AF4" s="153"/>
-      <c r="AG4" s="154"/>
+      <c r="AB4" s="143"/>
+      <c r="AC4" s="144"/>
+      <c r="AD4" s="144"/>
+      <c r="AE4" s="144"/>
+      <c r="AF4" s="144"/>
+      <c r="AG4" s="145"/>
     </row>
     <row r="5" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="133" t="s">
@@ -8166,40 +8166,40 @@
       <c r="P5" s="134"/>
       <c r="Q5" s="134"/>
       <c r="R5" s="134"/>
-      <c r="AB5" s="152"/>
-      <c r="AC5" s="153"/>
-      <c r="AD5" s="153"/>
-      <c r="AE5" s="153"/>
-      <c r="AF5" s="153"/>
-      <c r="AG5" s="154"/>
+      <c r="AB5" s="143"/>
+      <c r="AC5" s="144"/>
+      <c r="AD5" s="144"/>
+      <c r="AE5" s="144"/>
+      <c r="AF5" s="144"/>
+      <c r="AG5" s="145"/>
     </row>
     <row r="6" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="125"/>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="125"/>
-      <c r="M6" s="125"/>
-      <c r="N6" s="148" t="s">
+      <c r="A6" s="124"/>
+      <c r="B6" s="124"/>
+      <c r="C6" s="124"/>
+      <c r="D6" s="124"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="124"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="124"/>
+      <c r="I6" s="124"/>
+      <c r="J6" s="124"/>
+      <c r="K6" s="124"/>
+      <c r="L6" s="124"/>
+      <c r="M6" s="124"/>
+      <c r="N6" s="158" t="s">
         <v>243</v>
       </c>
-      <c r="O6" s="148"/>
-      <c r="P6" s="148"/>
-      <c r="Q6" s="148"/>
-      <c r="R6" s="148"/>
-      <c r="AB6" s="152"/>
-      <c r="AC6" s="153"/>
-      <c r="AD6" s="153"/>
-      <c r="AE6" s="153"/>
-      <c r="AF6" s="153"/>
-      <c r="AG6" s="154"/>
+      <c r="O6" s="158"/>
+      <c r="P6" s="158"/>
+      <c r="Q6" s="158"/>
+      <c r="R6" s="158"/>
+      <c r="AB6" s="143"/>
+      <c r="AC6" s="144"/>
+      <c r="AD6" s="144"/>
+      <c r="AE6" s="144"/>
+      <c r="AF6" s="144"/>
+      <c r="AG6" s="145"/>
     </row>
     <row r="7" spans="1:33" s="33" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="68" t="s">
@@ -8217,16 +8217,16 @@
       <c r="E7" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="144" t="s">
+      <c r="F7" s="135" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="145"/>
-      <c r="H7" s="146"/>
-      <c r="I7" s="138" t="s">
+      <c r="G7" s="156"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="153" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="139"/>
-      <c r="K7" s="140"/>
+      <c r="J7" s="154"/>
+      <c r="K7" s="155"/>
       <c r="L7" s="38" t="s">
         <v>108</v>
       </c>
@@ -8242,25 +8242,25 @@
       <c r="P7" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="Q7" s="144" t="s">
+      <c r="Q7" s="135" t="s">
         <v>113</v>
       </c>
-      <c r="R7" s="146"/>
-      <c r="AB7" s="152"/>
-      <c r="AC7" s="153"/>
-      <c r="AD7" s="153"/>
-      <c r="AE7" s="153"/>
-      <c r="AF7" s="153"/>
-      <c r="AG7" s="154"/>
+      <c r="R7" s="136"/>
+      <c r="AB7" s="143"/>
+      <c r="AC7" s="144"/>
+      <c r="AD7" s="144"/>
+      <c r="AE7" s="144"/>
+      <c r="AF7" s="144"/>
+      <c r="AG7" s="145"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="Q8" s="44"/>
-      <c r="AB8" s="152"/>
-      <c r="AC8" s="153"/>
-      <c r="AD8" s="153"/>
-      <c r="AE8" s="153"/>
-      <c r="AF8" s="153"/>
-      <c r="AG8" s="154"/>
+      <c r="AB8" s="143"/>
+      <c r="AC8" s="144"/>
+      <c r="AD8" s="144"/>
+      <c r="AE8" s="144"/>
+      <c r="AF8" s="144"/>
+      <c r="AG8" s="145"/>
     </row>
     <row r="9" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="133" t="s">
@@ -8290,41 +8290,41 @@
       <c r="W9" s="134"/>
       <c r="X9" s="134"/>
       <c r="Y9" s="134"/>
-      <c r="AB9" s="155"/>
-      <c r="AC9" s="156"/>
-      <c r="AD9" s="156"/>
-      <c r="AE9" s="156"/>
-      <c r="AF9" s="156"/>
-      <c r="AG9" s="157"/>
+      <c r="AB9" s="146"/>
+      <c r="AC9" s="147"/>
+      <c r="AD9" s="147"/>
+      <c r="AE9" s="147"/>
+      <c r="AF9" s="147"/>
+      <c r="AG9" s="148"/>
     </row>
     <row r="10" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="127"/>
-      <c r="B10" s="128"/>
-      <c r="C10" s="128"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
-      <c r="F10" s="128"/>
-      <c r="G10" s="128"/>
-      <c r="H10" s="128"/>
-      <c r="I10" s="128"/>
-      <c r="J10" s="128"/>
-      <c r="K10" s="128"/>
-      <c r="L10" s="128"/>
-      <c r="M10" s="128"/>
-      <c r="N10" s="128"/>
-      <c r="O10" s="128"/>
-      <c r="P10" s="128"/>
-      <c r="Q10" s="128"/>
-      <c r="R10" s="128"/>
-      <c r="S10" s="129"/>
-      <c r="T10" s="135" t="s">
+      <c r="A10" s="130"/>
+      <c r="B10" s="131"/>
+      <c r="C10" s="131"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="131"/>
+      <c r="F10" s="131"/>
+      <c r="G10" s="131"/>
+      <c r="H10" s="131"/>
+      <c r="I10" s="131"/>
+      <c r="J10" s="131"/>
+      <c r="K10" s="131"/>
+      <c r="L10" s="131"/>
+      <c r="M10" s="131"/>
+      <c r="N10" s="131"/>
+      <c r="O10" s="131"/>
+      <c r="P10" s="131"/>
+      <c r="Q10" s="131"/>
+      <c r="R10" s="131"/>
+      <c r="S10" s="132"/>
+      <c r="T10" s="137" t="s">
         <v>245</v>
       </c>
-      <c r="U10" s="136"/>
-      <c r="V10" s="136"/>
-      <c r="W10" s="136"/>
-      <c r="X10" s="136"/>
-      <c r="Y10" s="137"/>
+      <c r="U10" s="138"/>
+      <c r="V10" s="138"/>
+      <c r="W10" s="138"/>
+      <c r="X10" s="138"/>
+      <c r="Y10" s="139"/>
       <c r="Z10" s="69"/>
       <c r="AA10" s="69"/>
     </row>
@@ -8344,26 +8344,26 @@
       <c r="E11" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="158" t="s">
+      <c r="F11" s="152" t="s">
         <v>247</v>
       </c>
-      <c r="G11" s="158"/>
-      <c r="H11" s="158"/>
-      <c r="I11" s="138" t="s">
+      <c r="G11" s="152"/>
+      <c r="H11" s="152"/>
+      <c r="I11" s="153" t="s">
         <v>248</v>
       </c>
-      <c r="J11" s="139"/>
-      <c r="K11" s="140"/>
-      <c r="L11" s="141" t="s">
+      <c r="J11" s="154"/>
+      <c r="K11" s="155"/>
+      <c r="L11" s="149" t="s">
         <v>249</v>
       </c>
-      <c r="M11" s="142"/>
-      <c r="N11" s="143"/>
-      <c r="O11" s="141" t="s">
+      <c r="M11" s="150"/>
+      <c r="N11" s="151"/>
+      <c r="O11" s="149" t="s">
         <v>250</v>
       </c>
-      <c r="P11" s="142"/>
-      <c r="Q11" s="143"/>
+      <c r="P11" s="150"/>
+      <c r="Q11" s="151"/>
       <c r="R11" s="38" t="s">
         <v>71</v>
       </c>
@@ -8382,10 +8382,10 @@
       <c r="W11" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="X11" s="144" t="s">
+      <c r="X11" s="135" t="s">
         <v>114</v>
       </c>
-      <c r="Y11" s="146"/>
+      <c r="Y11" s="136"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="36"/>
@@ -8464,14 +8464,14 @@
       <c r="I15" s="71"/>
       <c r="J15" s="71"/>
       <c r="K15" s="71"/>
-      <c r="L15" s="135" t="s">
+      <c r="L15" s="137" t="s">
         <v>244</v>
       </c>
-      <c r="M15" s="136"/>
-      <c r="N15" s="136"/>
-      <c r="O15" s="136"/>
-      <c r="P15" s="136"/>
-      <c r="Q15" s="137"/>
+      <c r="M15" s="138"/>
+      <c r="N15" s="138"/>
+      <c r="O15" s="138"/>
+      <c r="P15" s="138"/>
+      <c r="Q15" s="139"/>
     </row>
     <row r="16" spans="1:33" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="67" t="s">
@@ -8489,16 +8489,16 @@
       <c r="E16" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="158" t="s">
+      <c r="F16" s="152" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="158"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="141" t="s">
+      <c r="G16" s="152"/>
+      <c r="H16" s="152"/>
+      <c r="I16" s="149" t="s">
         <v>152</v>
       </c>
-      <c r="J16" s="142"/>
-      <c r="K16" s="143"/>
+      <c r="J16" s="150"/>
+      <c r="K16" s="151"/>
       <c r="L16" s="68" t="s">
         <v>109</v>
       </c>
@@ -8511,10 +8511,10 @@
       <c r="O16" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="P16" s="144" t="s">
+      <c r="P16" s="135" t="s">
         <v>114</v>
       </c>
-      <c r="Q16" s="146"/>
+      <c r="Q16" s="136"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="44"/>
@@ -8563,18 +8563,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="L15:Q15"/>
-    <mergeCell ref="A14:Q14"/>
-    <mergeCell ref="AB2:AG9"/>
-    <mergeCell ref="A9:Y9"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="T10:Y10"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="A10:S10"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I16:K16"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="N2:S2"/>
@@ -8589,6 +8577,18 @@
     <mergeCell ref="Q7:R7"/>
     <mergeCell ref="N6:R6"/>
     <mergeCell ref="A5:R5"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="L15:Q15"/>
+    <mergeCell ref="A14:Q14"/>
+    <mergeCell ref="AB2:AG9"/>
+    <mergeCell ref="A9:Y9"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="T10:Y10"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="A10:S10"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I16:K16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8611,21 +8611,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="124" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="F1" s="114" t="s">
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="F1" s="80" t="s">
         <v>149</v>
       </c>
-      <c r="G1" s="116"/>
-      <c r="I1" s="114" t="s">
+      <c r="G1" s="82"/>
+      <c r="I1" s="80" t="s">
         <v>231</v>
       </c>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="116"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="82"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
